--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D366FF-D560-C74D-A01F-56A4E33AA5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC1804F-224C-6C44-B375-BFB83F7A0991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68340" yWindow="-6360" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="9">
@@ -1307,32 +1307,32 @@
       <c r="E15" s="22">
         <v>2</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>40</v>
+      <c r="F15" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="9">
@@ -1341,26 +1341,26 @@
       <c r="E16" s="22">
         <v>2</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>36</v>
+      <c r="F16" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1376,16 +1376,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="18"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC1804F-224C-6C44-B375-BFB83F7A0991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE9B2A-0EEE-DC41-A6FC-A84734223D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68340" yWindow="-6360" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="38820" yWindow="-6980" windowWidth="37540" windowHeight="29620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -178,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.organization.training</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>培训管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,14 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/organization/training</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.organization.desktop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工作台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/organization/desktop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>考勤/请假/培训/出差</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,14 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/organization/approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.organization.approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>各种审批</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,36 +295,110 @@
     <t>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</t>
   </si>
   <si>
+    <t>7a630066-b24f-4fee-a09a-208b0cfbb053</t>
+  </si>
+  <si>
+    <t>1605561b-2eea-446c-84c0-be19878519ae</t>
+  </si>
+  <si>
+    <t>facb8134-c14f-4675-9ff6-591588fc77ac</t>
+  </si>
+  <si>
+    <t>b309958e-f3e5-4cec-bbe4-6a00f1b9108f</t>
+  </si>
+  <si>
+    <t>ac792b7b-bfef-49eb-85b6-4bc88458ba2b</t>
+  </si>
+  <si>
+    <t>29023700-f2be-43d2-bf15-aebc300af12d</t>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</t>
-  </si>
-  <si>
-    <t>7a630066-b24f-4fee-a09a-208b0cfbb053</t>
-  </si>
-  <si>
-    <t>1605561b-2eea-446c-84c0-be19878519ae</t>
-  </si>
-  <si>
-    <t>facb8134-c14f-4675-9ff6-591588fc77ac</t>
-  </si>
-  <si>
-    <t>b309958e-f3e5-4cec-bbe4-6a00f1b9108f</t>
-  </si>
-  <si>
-    <t>ac792b7b-bfef-49eb-85b6-4bc88458ba2b</t>
-  </si>
-  <si>
-    <t>29023700-f2be-43d2-bf15-aebc300af12d</t>
-  </si>
-  <si>
-    <t>a2f6bccf-18d1-4b4f-904f-261d77e4e1d4</t>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>solution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/vacation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.vacation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdf455ad-605e-4da9-9dce-0f8086ba4628</t>
+  </si>
+  <si>
+    <t>2976b4fe-98f6-4ac8-b6df-7d142e31d75f</t>
+  </si>
+  <si>
+    <t>19820d31-ce05-4b1a-9dff-cd260b2a3b72</t>
+  </si>
+  <si>
+    <t>f6f221ba-a96c-428c-bac4-f2ae2f0a099a</t>
   </si>
 </sst>
 </file>
@@ -866,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M17"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -972,7 +1024,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="s">
@@ -985,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>24</v>
@@ -1000,14 +1052,14 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
         <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15">
         <v>1005</v>
@@ -1016,29 +1068,29 @@
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" ref="B7:B8" si="0">A$5</f>
         <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15">
         <v>1010</v>
@@ -1047,29 +1099,29 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15">
         <v>1015</v>
@@ -1078,54 +1130,59 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>37</v>
+      <c r="F9" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$9</f>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>25</v>
@@ -1137,260 +1194,342 @@
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" s="20" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f>A$9</f>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+        <f t="shared" ref="B11:B13" si="1">A$9</f>
+        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="15">
         <v>1010</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f t="shared" ref="B12:B17" si="1">A$9</f>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C12" s="12" t="s">
+        <f t="shared" si="1"/>
+        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="15">
         <v>1015</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
+      <c r="F12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="15">
         <v>1020</v>
       </c>
       <c r="E13" s="22">
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C14" s="12" t="s">
+        <f>A$9</f>
+        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="15">
         <v>1025</v>
       </c>
       <c r="E14" s="22">
         <v>2</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>35</v>
+      <c r="F14" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9">
-        <v>1030</v>
-      </c>
-      <c r="E15" s="22">
-        <v>2</v>
+      <c r="D15" s="6">
+        <v>5800</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B16:B20" si="2">A$15</f>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="9">
-        <v>1035</v>
+        <v>1005</v>
       </c>
       <c r="E16" s="22">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>45</v>
+      <c r="F16" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="9">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="E17" s="22">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="18"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E19" s="22">
+        <v>2</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E20" s="22">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE9B2A-0EEE-DC41-A6FC-A84734223D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F56265-038B-B64D-B7D1-94D658FCFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="-6980" windowWidth="37540" windowHeight="29620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="49860" yWindow="-7940" windowWidth="37540" windowHeight="29620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -200,18 +200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>check-square</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的审批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种审批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.customer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,9 +283,6 @@
     <t>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</t>
   </si>
   <si>
-    <t>7a630066-b24f-4fee-a09a-208b0cfbb053</t>
-  </si>
-  <si>
     <t>1605561b-2eea-446c-84c0-be19878519ae</t>
   </si>
   <si>
@@ -329,10 +314,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.desktop.approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出差管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,10 +323,6 @@
   </si>
   <si>
     <t>工作交接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/desktop/approval</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -918,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1024,7 +1001,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="s">
@@ -1037,13 +1014,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>24</v>
@@ -1052,14 +1029,14 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
         <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="15">
         <v>1005</v>
@@ -1068,29 +1045,29 @@
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f t="shared" ref="B7:B8" si="0">A$5</f>
+        <f>A$5</f>
         <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="15">
         <v>1010</v>
@@ -1099,29 +1076,29 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="I7" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$5</f>
         <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="15">
         <v>1015</v>
@@ -1130,22 +1107,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="I8" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="13" t="s">
@@ -1158,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>47</v>
@@ -1178,7 +1155,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$9</f>
@@ -1187,37 +1164,32 @@
       <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="15">
         <v>1005</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f t="shared" ref="B11:B13" si="1">A$9</f>
+        <f>A$9</f>
         <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1230,25 +1202,25 @@
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>A$9</f>
         <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1261,25 +1233,25 @@
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>A$9</f>
         <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1292,171 +1264,174 @@
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="8" t="str">
-        <f>A$9</f>
-        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="15">
-        <v>1025</v>
-      </c>
-      <c r="E14" s="22">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>99</v>
+      <c r="D14" s="6">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>93</v>
+        <v>46</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" ref="B15:B19" si="0">A$14</f>
+        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+      </c>
       <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6">
-        <v>5800</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
+      <c r="D15" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f t="shared" ref="B16:B20" si="2">A$15</f>
+        <f t="shared" si="0"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="9">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E16" s="22">
         <v>2</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>34</v>
+      <c r="F16" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="9">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E17" s="22">
         <v>2</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>41</v>
+      <c r="F17" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="9">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E18" s="22">
         <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="19"/>
@@ -1465,71 +1440,37 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="9">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E19" s="22">
         <v>2</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>36</v>
+      <c r="F19" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1025</v>
-      </c>
-      <c r="E20" s="22">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F56265-038B-B64D-B7D1-94D658FCFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D06F7-7C43-B44E-87C7-9260C146AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49860" yWindow="-7940" windowWidth="37540" windowHeight="29620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="39600" yWindow="-5820" windowWidth="37540" windowHeight="29620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -898,7 +898,7 @@
   <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D06F7-7C43-B44E-87C7-9260C146AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775CDA38-F9B2-FD43-99E4-36FD399872E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39600" yWindow="-5820" windowWidth="37540" windowHeight="29620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="57700" yWindow="-8060" windowWidth="38940" windowHeight="28740" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>desktop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>smile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,22 +224,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.customer.vendor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gateway</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/ambient/customer/vendor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.customer.account</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,36 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9489bd52-6d4a-4762-9898-422d7d0a76b0</t>
-  </si>
-  <si>
-    <t>4a436406-ed7d-4110-b73d-670b61e9ee32</t>
-  </si>
-  <si>
-    <t>6f399d5e-8450-4e1f-8c4a-6d46f03ad56b</t>
-  </si>
-  <si>
-    <t>21c4b087-7d84-4b78-a1dd-e066635915c5</t>
-  </si>
-  <si>
-    <t>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</t>
-  </si>
-  <si>
-    <t>1605561b-2eea-446c-84c0-be19878519ae</t>
-  </si>
-  <si>
-    <t>facb8134-c14f-4675-9ff6-591588fc77ac</t>
-  </si>
-  <si>
-    <t>b309958e-f3e5-4cec-bbe4-6a00f1b9108f</t>
-  </si>
-  <si>
-    <t>ac792b7b-bfef-49eb-85b6-4bc88458ba2b</t>
-  </si>
-  <si>
-    <t>29023700-f2be-43d2-bf15-aebc300af12d</t>
-  </si>
-  <si>
     <t>tag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,10 +260,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出差管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -322,26 +268,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作交接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/desktop/assignment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/desktop/trip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/desktop/vacation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/desktop/training</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>team</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -354,10 +280,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.desktop.trip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.desktop.vacation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,16 +288,455 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cdf455ad-605e-4da9-9dce-0f8086ba4628</t>
-  </si>
-  <si>
-    <t>2976b4fe-98f6-4ac8-b6df-7d142e31d75f</t>
-  </si>
-  <si>
-    <t>19820d31-ce05-4b1a-9dff-cd260b2a3b72</t>
-  </si>
-  <si>
-    <t>f6f221ba-a96c-428c-bac4-f2ae2f0a099a</t>
+    <t>协议单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ambient/employee/vendor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离场管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时补签管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock-circle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.in-w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.in-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.in-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.in-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file-add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理/审批工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.check-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.vendor.check-in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.vendor.check-in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.out-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.out-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.out-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.check-out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.vendor.check-out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.vendor.check-out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.check-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.check-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.check-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.assessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.vendor.assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.vendor.assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.hour-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.hour-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.vendor.hour-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.vendor.hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.vendor.hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交接管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.trip-w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.trip-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.trip-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.trip-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.oa.trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.oa.trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.vacation-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.vacation-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.vacation-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.vacation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.oa.vacation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.oa.vacation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.assignment-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.assignment-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.assignment-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.oa.assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.oa.assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.training-w.open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.training-w.approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.desktop.training-w.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/queue?name=process.oa.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/done?name=process.oa.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fab35abe-6029-4bec-8a8d-8e88ea3fb550</t>
+  </si>
+  <si>
+    <t>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</t>
+  </si>
+  <si>
+    <t>0c17853c-71e1-438d-a739-960e691bc1bb</t>
+  </si>
+  <si>
+    <t>240577e7-ce30-4456-adeb-67ff4ec3707a</t>
+  </si>
+  <si>
+    <t>9b1ab930-fd1c-4975-aaba-cffea6e917d3</t>
+  </si>
+  <si>
+    <t>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</t>
+  </si>
+  <si>
+    <t>df7c895c-0920-4c60-8fba-c6419c105f4b</t>
+  </si>
+  <si>
+    <t>5def0da9-600d-4fec-86be-90a63ba2767d</t>
+  </si>
+  <si>
+    <t>ab7c44ef-c8bc-454d-89a8-2e59a3b540ce</t>
+  </si>
+  <si>
+    <t>ee0da11a-d282-4fcc-87f5-e06083b164fb</t>
+  </si>
+  <si>
+    <t>18017286-bcec-4dc8-b31a-fa2ae0235970</t>
+  </si>
+  <si>
+    <t>8c50d11a-4b96-4d29-9a3c-96bbdf969727</t>
+  </si>
+  <si>
+    <t>bdfa3f95-61a9-4e39-9977-403653e23d28</t>
+  </si>
+  <si>
+    <t>227d46ea-ab66-4de3-8d2e-ec969e0be08d</t>
+  </si>
+  <si>
+    <t>c148cc9c-369b-4449-ac24-c88579a06f23</t>
+  </si>
+  <si>
+    <t>17c79afe-b7c2-4bd6-a86e-d175f39d8da3</t>
+  </si>
+  <si>
+    <t>cb06c572-eaef-4445-bf83-169f58c11eac</t>
+  </si>
+  <si>
+    <t>32299357-d221-46fd-b30c-58e402a64aa5</t>
+  </si>
+  <si>
+    <t>52c770cc-95a2-4d83-91ae-d1f85d3e1f59</t>
+  </si>
+  <si>
+    <t>b17c8e30-8399-44a3-8357-6110103e4061</t>
+  </si>
+  <si>
+    <t>48b98239-f5cc-47fe-a5cf-14d47966986c</t>
+  </si>
+  <si>
+    <t>e4deaecd-b90b-42c5-a335-8c21b5027b42</t>
+  </si>
+  <si>
+    <t>19cc43c0-b147-46f1-87c3-4238b2985658</t>
+  </si>
+  <si>
+    <t>32376337-119d-4196-a153-f2e2a272fe61</t>
+  </si>
+  <si>
+    <t>acca7b4d-9606-4608-85e9-3c964da0bdab</t>
+  </si>
+  <si>
+    <t>c99abfc8-2e0f-4fa3-9e7a-0a9cfc625423</t>
+  </si>
+  <si>
+    <t>9593ba3c-eaae-45a6-a9b6-116bab0b9c4a</t>
+  </si>
+  <si>
+    <t>8953fb0e-1227-4cfa-91e6-64ac54153e52</t>
+  </si>
+  <si>
+    <t>7cbaecb3-71c7-4aec-a239-3b6cf0a09aed</t>
+  </si>
+  <si>
+    <t>2c6adf9d-586f-43b4-85ca-9c7f7f80216b</t>
+  </si>
+  <si>
+    <t>825ccde2-419e-452c-b634-e54b6b81f549</t>
+  </si>
+  <si>
+    <t>d986b8df-04e9-41af-9e86-5be02a6c5c23</t>
+  </si>
+  <si>
+    <t>549716fc-f330-4ece-9053-060f348c74a4</t>
+  </si>
+  <si>
+    <t>c65f1050-abbe-42ac-933a-f7c18240512b</t>
+  </si>
+  <si>
+    <t>18ca6ad2-77fa-4cdb-a6d1-979dc31ea29b</t>
+  </si>
+  <si>
+    <t>1af4434d-59f5-4178-80c6-53c86bae247c</t>
+  </si>
+  <si>
+    <t>398c35f5-58f7-4f99-a206-abda7c3eddde</t>
+  </si>
+  <si>
+    <t>129353ca-f9a1-44b9-93fa-b576f596452f</t>
+  </si>
+  <si>
+    <t>9bd13399-265b-4a5b-8028-c30709334c67</t>
+  </si>
+  <si>
+    <t>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</t>
+  </si>
+  <si>
+    <t>cfa603ec-84a3-42bf-9167-2983748f24c5</t>
+  </si>
+  <si>
+    <t>94ca99cf-079d-47d2-a95c-1b4c9756bd37</t>
+  </si>
+  <si>
+    <t>90731bea-7b6d-4766-8bac-423949fd4794</t>
+  </si>
+  <si>
+    <t>d148e75a-2295-4762-9d3a-e7c01ab988be</t>
+  </si>
+  <si>
+    <t>51acfcaf-fa20-48eb-874e-75a92b73dc5b</t>
   </si>
 </sst>
 </file>
@@ -522,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +941,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M19"/>
+  <dimension ref="A2:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -911,7 +1275,7 @@
     <col min="6" max="6" width="43.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="3"/>
@@ -1001,304 +1365,310 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="6">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>50</v>
+      <c r="F5" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
-        <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>53</v>
+        <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="15">
         <v>1005</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>61</v>
+      <c r="F6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f>A$5</f>
-        <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
+        <f>A$6</f>
+        <v>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="15">
-        <v>1010</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E7" s="24">
+        <v>3</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f>A$5</f>
-        <v>9489bd52-6d4a-4762-9898-422d7d0a76b0</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>53</v>
+        <f t="shared" ref="B8:B9" si="0">A$6</f>
+        <v>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="15">
-        <v>1015</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2</v>
+        <v>1010</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>79</v>
+      <c r="D9" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f>A$9</f>
-        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
+        <f>A$5</f>
+        <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="15">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f>A$9</f>
-        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
+        <f>A$10</f>
+        <v>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="15">
-        <v>1010</v>
-      </c>
-      <c r="E11" s="22">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>81</v>
+        <v>1005</v>
+      </c>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f>A$9</f>
-        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
+        <f t="shared" ref="B12:B13" si="1">A$10</f>
+        <v>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="15">
-        <v>1015</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>92</v>
+        <v>1010</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B13" s="8" t="str">
-        <f>A$9</f>
-        <v>ec19ed34-a5e2-406d-9f7e-d1c552eb28c4</v>
+        <f t="shared" si="1"/>
+        <v>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="15">
-        <v>1020</v>
-      </c>
-      <c r="E13" s="22">
-        <v>2</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>93</v>
+        <v>1015</v>
+      </c>
+      <c r="E13" s="24">
+        <v>3</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5800</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>A$5</f>
+        <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>24</v>
@@ -1307,170 +1677,1091 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B15" s="8" t="str">
-        <f t="shared" ref="B15:B19" si="0">A$14</f>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9">
+        <f>A$14</f>
+        <v>ee0da11a-d282-4fcc-87f5-e06083b164fb</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15">
         <v>1005</v>
       </c>
-      <c r="E15" s="22">
-        <v>2</v>
+      <c r="E15" s="24">
+        <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
+        <f t="shared" ref="B16:B17" si="2">A$14</f>
+        <v>ee0da11a-d282-4fcc-87f5-e06083b164fb</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="15">
         <v>1010</v>
       </c>
-      <c r="E16" s="22">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>41</v>
+      <c r="E16" s="24">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13">
+        <v>143</v>
+      </c>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9">
+        <f t="shared" si="2"/>
+        <v>ee0da11a-d282-4fcc-87f5-e06083b164fb</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15">
         <v>1015</v>
       </c>
-      <c r="E17" s="22">
-        <v>2</v>
+      <c r="E17" s="24">
+        <v>3</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="9">
+        <f>A$5</f>
+        <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="15">
         <v>1020</v>
       </c>
       <c r="E18" s="22">
         <v>2</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>A$18</f>
+        <v>227d46ea-ab66-4de3-8d2e-ec969e0be08d</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E19" s="24">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" ref="B20:B21" si="3">A$18</f>
+        <v>227d46ea-ab66-4de3-8d2e-ec969e0be08d</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E20" s="24">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>227d46ea-ab66-4de3-8d2e-ec969e0be08d</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E21" s="24">
+        <v>3</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>A$22</f>
+        <v>32299357-d221-46fd-b30c-58e402a64aa5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>A$22</f>
+        <v>32299357-d221-46fd-b30c-58e402a64aa5</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5710</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f>A$25</f>
+        <v>48b98239-f5cc-47fe-a5cf-14d47966986c</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f t="shared" ref="B27:B28" si="4">A$25</f>
+        <v>48b98239-f5cc-47fe-a5cf-14d47966986c</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>48b98239-f5cc-47fe-a5cf-14d47966986c</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>A$28</f>
+        <v>32376337-119d-4196-a153-f2e2a272fe61</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E29" s="24">
+        <v>3</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f t="shared" ref="B30:B31" si="5">A$28</f>
+        <v>32376337-119d-4196-a153-f2e2a272fe61</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E30" s="24">
+        <v>3</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>32376337-119d-4196-a153-f2e2a272fe61</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E31" s="24">
+        <v>3</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f t="shared" ref="B32" si="6">A$25</f>
+        <v>48b98239-f5cc-47fe-a5cf-14d47966986c</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1020</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f>A$32</f>
+        <v>8953fb0e-1227-4cfa-91e6-64ac54153e52</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E33" s="24">
+        <v>3</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f>A$32</f>
+        <v>8953fb0e-1227-4cfa-91e6-64ac54153e52</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E34" s="24">
+        <v>3</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f>A$32</f>
+        <v>8953fb0e-1227-4cfa-91e6-64ac54153e52</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E35" s="24">
+        <v>3</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f t="shared" ref="B36" si="7">A$25</f>
+        <v>48b98239-f5cc-47fe-a5cf-14d47966986c</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1025</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f>A$36</f>
+        <v>d986b8df-04e9-41af-9e86-5be02a6c5c23</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E37" s="24">
+        <v>3</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f t="shared" ref="B38:B39" si="8">A$36</f>
+        <v>d986b8df-04e9-41af-9e86-5be02a6c5c23</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E38" s="24">
+        <v>3</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>d986b8df-04e9-41af-9e86-5be02a6c5c23</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E39" s="24">
+        <v>3</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f t="shared" ref="B40" si="9">A$25</f>
+        <v>48b98239-f5cc-47fe-a5cf-14d47966986c</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1030</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="8" t="str">
+        <f>A$40</f>
+        <v>1af4434d-59f5-4178-80c6-53c86bae247c</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1005</v>
+      </c>
+      <c r="E41" s="24">
+        <v>3</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f t="shared" ref="B42:B43" si="10">A$40</f>
+        <v>1af4434d-59f5-4178-80c6-53c86bae247c</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E42" s="24">
+        <v>3</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>1af4434d-59f5-4178-80c6-53c86bae247c</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1015</v>
+      </c>
+      <c r="E43" s="24">
+        <v>3</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5800</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="8" t="str">
+        <f t="shared" ref="B45:B49" si="11">A$44</f>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E45" s="22">
+        <v>2</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E46" s="22">
+        <v>2</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E47" s="22">
+        <v>2</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E48" s="22">
+        <v>2</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>1a2a7e4e-ba29-4a91-a9ae-1a7eda4e64b6</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="I48" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="9">
         <v>1025</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E49" s="22">
         <v>2</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775CDA38-F9B2-FD43-99E4-36FD399872E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A2DD0-2AF1-A944-A66A-FABD8DDF484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57700" yWindow="-8060" windowWidth="38940" windowHeight="28740" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="67360" yWindow="-16040" windowWidth="44580" windowHeight="33200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="236">
   <si>
     <t>name</t>
   </si>
@@ -737,13 +737,154 @@
   </si>
   <si>
     <t>51acfcaf-fa20-48eb-874e-75a92b73dc5b</t>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.training</t>
+  </si>
+  <si>
+    <t>SC-MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c77493d-62a9-4b60-9c4d-cc7a295657b9</t>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.assignment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file-search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交接工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.assignment</t>
+  </si>
+  <si>
+    <t>1270c371-51db-4ec8-bbab-a13fc514745b</t>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.vacation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假申请工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.vacation</t>
+  </si>
+  <si>
+    <t>19724a42-10a7-4eea-a135-1f14bcd571c5</t>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.oa.trip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差申请工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process.oa.trip</t>
+  </si>
+  <si>
+    <t>5d527d39-997d-4693-b9ed-68eb1b38dbb6</t>
+  </si>
+  <si>
+    <t>process.oa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d58bf5e0-a67b-4c72-90c4-78c1da16a516</t>
+  </si>
+  <si>
+    <t>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</t>
+  </si>
+  <si>
+    <t>process.vendor</t>
+  </si>
+  <si>
+    <t>供应商人员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19f74f53-8b01-4127-9e27-ddc9f6a4a1fe</t>
+  </si>
+  <si>
+    <t>process.vendor.check-in</t>
+  </si>
+  <si>
+    <t>入场申请工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.check-in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eeb36ba8-66eb-4acf-ac26-ab505fce741d</t>
+  </si>
+  <si>
+    <t>process.vendor.check-out</t>
+  </si>
+  <si>
+    <t>离场申请工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.check-out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2bca956-14af-4fbe-bb07-380b07582a04</t>
+  </si>
+  <si>
+    <t>process.vendor.assessment</t>
+  </si>
+  <si>
+    <t>考核工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1486dcf7-6580-45c9-9a64-396ce02e85be</t>
+  </si>
+  <si>
+    <t>process.vendor.hour</t>
+  </si>
+  <si>
+    <t>工时补签工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/workflow/open?name=process.vendor.hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -806,6 +947,22 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -883,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,11 +1096,20 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M49"/>
+  <dimension ref="A2:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A55" sqref="A55:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1288,16 +1454,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -1441,7 +1607,7 @@
       <c r="D7" s="15">
         <v>1005</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>3</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -1472,7 +1638,7 @@
       <c r="D8" s="15">
         <v>1010</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>3</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -1503,7 +1669,7 @@
       <c r="D9" s="15">
         <v>1015</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>3</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -1565,7 +1731,7 @@
       <c r="D11" s="15">
         <v>1005</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
@@ -1596,7 +1762,7 @@
       <c r="D12" s="15">
         <v>1010</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -1627,7 +1793,7 @@
       <c r="D13" s="15">
         <v>1015</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
@@ -1689,7 +1855,7 @@
       <c r="D15" s="15">
         <v>1005</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -1720,7 +1886,7 @@
       <c r="D16" s="15">
         <v>1010</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -1751,7 +1917,7 @@
       <c r="D17" s="15">
         <v>1015</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -1813,7 +1979,7 @@
       <c r="D19" s="15">
         <v>1005</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>3</v>
       </c>
       <c r="F19" s="17" t="s">
@@ -1844,7 +2010,7 @@
       <c r="D20" s="15">
         <v>1010</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>3</v>
       </c>
       <c r="F20" s="17" t="s">
@@ -1875,7 +2041,7 @@
       <c r="D21" s="15">
         <v>1015</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>3</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -2117,7 +2283,7 @@
       <c r="D29" s="15">
         <v>1005</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>3</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -2148,7 +2314,7 @@
       <c r="D30" s="15">
         <v>1010</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>3</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -2179,7 +2345,7 @@
       <c r="D31" s="15">
         <v>1015</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>3</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -2241,7 +2407,7 @@
       <c r="D33" s="15">
         <v>1005</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>3</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -2272,7 +2438,7 @@
       <c r="D34" s="15">
         <v>1010</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>3</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -2303,7 +2469,7 @@
       <c r="D35" s="15">
         <v>1015</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>3</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -2365,7 +2531,7 @@
       <c r="D37" s="15">
         <v>1005</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>3</v>
       </c>
       <c r="F37" s="17" t="s">
@@ -2396,7 +2562,7 @@
       <c r="D38" s="15">
         <v>1010</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>3</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -2427,7 +2593,7 @@
       <c r="D39" s="15">
         <v>1015</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>3</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -2489,7 +2655,7 @@
       <c r="D41" s="15">
         <v>1005</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <v>3</v>
       </c>
       <c r="F41" s="17" t="s">
@@ -2520,7 +2686,7 @@
       <c r="D42" s="15">
         <v>1010</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <v>3</v>
       </c>
       <c r="F42" s="17" t="s">
@@ -2551,7 +2717,7 @@
       <c r="D43" s="15">
         <v>1015</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>3</v>
       </c>
       <c r="F43" s="17" t="s">
@@ -2762,6 +2928,310 @@
       <c r="K49" s="18"/>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="6">
+        <v>10100</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="25" t="str">
+        <f>A$50</f>
+        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="25" t="str">
+        <f>A$50</f>
+        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="25" t="str">
+        <f>A$50</f>
+        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="25" t="str">
+        <f>A$50</f>
+        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="6">
+        <v>10600</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="25" t="str">
+        <f>A$55</f>
+        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="25" t="str">
+        <f>A$55</f>
+        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="25" t="str">
+        <f>A$55</f>
+        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="25" t="str">
+        <f>A$55</f>
+        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A2DD0-2AF1-A944-A66A-FABD8DDF484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C5227-7819-4444-8265-386B74DE9C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67360" yWindow="-16040" windowWidth="44580" windowHeight="33200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/ambient/employee/third-part</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -877,6 +873,10 @@
   </si>
   <si>
     <t>/workflow/open?name=process.vendor.hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ambient/employee/third_party</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1099,9 +1099,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1109,6 +1106,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1428,7 +1428,7 @@
   <dimension ref="A2:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD59"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1454,16 +1454,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -1531,7 +1531,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
@@ -1544,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>47</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -1580,13 +1580,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>24</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
@@ -1611,22 +1611,22 @@
         <v>3</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I7" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ref="B8:B9" si="0">A$6</f>
@@ -1642,22 +1642,22 @@
         <v>3</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I8" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1673,22 +1673,22 @@
         <v>3</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I9" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$5</f>
@@ -1704,13 +1704,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>24</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$10</f>
@@ -1735,22 +1735,22 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I11" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ref="B12:B13" si="1">A$10</f>
@@ -1766,22 +1766,22 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I12" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1797,22 +1797,22 @@
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I13" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>A$5</f>
@@ -1828,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>24</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$14</f>
@@ -1859,22 +1859,22 @@
         <v>3</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I15" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16:B17" si="2">A$14</f>
@@ -1890,22 +1890,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I16" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1921,22 +1921,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I17" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>A$5</f>
@@ -1952,13 +1952,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>24</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>A$18</f>
@@ -1983,22 +1983,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I19" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" ref="B20:B21" si="3">A$18</f>
@@ -2014,22 +2014,22 @@
         <v>3</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I20" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2045,22 +2045,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I21" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="13" t="s">
@@ -2088,7 +2088,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="8" t="str">
         <f>A$22</f>
@@ -2107,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>52</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>A$22</f>
@@ -2144,13 +2144,13 @@
         <v>60</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="13" t="s">
@@ -2163,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>24</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="8" t="str">
         <f>A$25</f>
@@ -2194,13 +2194,13 @@
         <v>2</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>56</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" ref="B27:B28" si="4">A$25</f>
@@ -2225,22 +2225,22 @@
         <v>2</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="I27" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2256,13 +2256,13 @@
         <v>2</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>24</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="8" t="str">
         <f>A$28</f>
@@ -2287,22 +2287,22 @@
         <v>3</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I29" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" ref="B30:B31" si="5">A$28</f>
@@ -2318,22 +2318,22 @@
         <v>3</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I30" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2349,22 +2349,22 @@
         <v>3</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I31" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" ref="B32" si="6">A$25</f>
@@ -2380,13 +2380,13 @@
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>24</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="8" t="str">
         <f>A$32</f>
@@ -2411,22 +2411,22 @@
         <v>3</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I33" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="8" t="str">
         <f>A$32</f>
@@ -2442,22 +2442,22 @@
         <v>3</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I34" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="8" t="str">
         <f>A$32</f>
@@ -2473,22 +2473,22 @@
         <v>3</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" ref="B36" si="7">A$25</f>
@@ -2504,13 +2504,13 @@
         <v>2</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>24</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="8" t="str">
         <f>A$36</f>
@@ -2535,22 +2535,22 @@
         <v>3</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I37" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" ref="B38:B39" si="8">A$36</f>
@@ -2566,22 +2566,22 @@
         <v>3</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I38" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" si="8"/>
@@ -2597,22 +2597,22 @@
         <v>3</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I39" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="8" t="str">
         <f t="shared" ref="B40" si="9">A$25</f>
@@ -2628,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>24</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="8" t="str">
         <f>A$40</f>
@@ -2659,22 +2659,22 @@
         <v>3</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I41" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="8" t="str">
         <f t="shared" ref="B42:B43" si="10">A$40</f>
@@ -2690,22 +2690,22 @@
         <v>3</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="I42" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="8" t="str">
         <f t="shared" si="10"/>
@@ -2721,22 +2721,22 @@
         <v>3</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="I43" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="12" t="s">
@@ -2764,7 +2764,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="8" t="str">
         <f t="shared" ref="B45:B49" si="11">A$44</f>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" s="8" t="str">
         <f t="shared" si="11"/>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="8" t="str">
         <f t="shared" si="11"/>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="8" t="str">
         <f t="shared" si="11"/>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" si="11"/>
@@ -2919,7 +2919,7 @@
         <v>38</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>39</v>
@@ -2930,12 +2930,12 @@
       <c r="M49" s="19"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B50" s="25"/>
+      <c r="A50" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D50" s="6">
         <v>10100</v>
@@ -2943,30 +2943,30 @@
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="27" t="s">
-        <v>214</v>
+      <c r="F50" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" s="25" t="str">
+      <c r="A51" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="24" t="str">
         <f>A$50</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="9">
         <v>1005</v>
@@ -2975,29 +2975,29 @@
         <v>2</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B52" s="25" t="str">
+      <c r="A52" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="24" t="str">
         <f>A$50</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D52" s="9">
         <v>1010</v>
@@ -3006,29 +3006,29 @@
         <v>2</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="25" t="str">
+      <c r="A53" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="24" t="str">
         <f>A$50</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="9">
         <v>1015</v>
@@ -3037,29 +3037,29 @@
         <v>2</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="25" t="str">
+      <c r="A54" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="24" t="str">
         <f>A$50</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54" s="9">
         <v>1020</v>
@@ -3068,26 +3068,26 @@
         <v>2</v>
       </c>
       <c r="F54" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="D55" s="6">
         <v>10600</v>
@@ -3095,30 +3095,30 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="25" t="str">
+      <c r="A56" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="24" t="str">
         <f>A$55</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="9">
         <v>1005</v>
@@ -3127,29 +3127,29 @@
         <v>2</v>
       </c>
       <c r="F56" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="H56" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B57" s="25" t="str">
+      <c r="B57" s="24" t="str">
         <f>A$55</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="9">
         <v>1010</v>
@@ -3158,29 +3158,29 @@
         <v>2</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="H57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" s="25" t="str">
+      <c r="B58" s="24" t="str">
         <f>A$55</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" s="9">
         <v>1015</v>
@@ -3189,29 +3189,29 @@
         <v>2</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="H58" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="I58" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="25" t="str">
+      <c r="B59" s="24" t="str">
         <f>A$55</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="9">
         <v>1020</v>
@@ -3220,16 +3220,16 @@
         <v>2</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="H59" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="J59" s="12"/>
     </row>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengchunmei/Desktop/AboutHotel/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C5227-7819-4444-8265-386B74DE9C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2777AA-7F88-DB49-8C0A-1A972173B875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67360" yWindow="-16040" windowWidth="44580" windowHeight="33200" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="241">
   <si>
     <t>name</t>
   </si>
@@ -877,6 +868,26 @@
   </si>
   <si>
     <t>/ambient/employee/third_party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>812f61c6-3427-438e-b6bf-dcb18085ef72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.organization.contract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/organization/contract</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1124,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1129,7 +1140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1425,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M59"/>
+  <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -2767,7 +2778,7 @@
         <v>190</v>
       </c>
       <c r="B45" s="8" t="str">
-        <f t="shared" ref="B45:B49" si="11">A$44</f>
+        <f t="shared" ref="B45:B50" si="11">A$44</f>
         <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -2930,308 +2941,342 @@
       <c r="M49" s="19"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="24"/>
+      <c r="A50" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
       <c r="C50" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="6">
-        <v>10100</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>213</v>
+        <v>25</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1030</v>
+      </c>
+      <c r="E50" s="22">
+        <v>2</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="12"/>
+        <v>239</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="24" t="str">
-        <f>A$50</f>
-        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E51" s="9">
-        <v>2</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>211</v>
+      <c r="D51" s="6">
+        <v>10100</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B52" s="24" t="str">
-        <f>A$50</f>
+        <f>A$51</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D52" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B53" s="24" t="str">
-        <f>A$50</f>
+        <f>A$51</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D53" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="24" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B54" s="24" t="str">
-        <f>A$50</f>
+        <f>A$51</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="24"/>
+        <v>199</v>
+      </c>
+      <c r="B55" s="24" t="str">
+        <f>A$51</f>
+        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
+      </c>
       <c r="C55" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="6">
-        <v>10600</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>216</v>
+      <c r="D55" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E55" s="9">
+        <v>2</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="24" t="str">
-        <f>A$55</f>
-        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E56" s="9">
-        <v>2</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>219</v>
+      <c r="D56" s="6">
+        <v>10600</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>221</v>
+        <v>51</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B57" s="24" t="str">
-        <f>A$55</f>
+        <f>A$56</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D57" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E57" s="9">
         <v>2</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B58" s="24" t="str">
-        <f>A$55</f>
+        <f>A$56</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D58" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B59" s="24" t="str">
-        <f>A$55</f>
+        <f>A$56</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D59" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E59" s="9">
         <v>2</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="24" t="str">
+        <f>A$56</f>
+        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E60" s="9">
+        <v>2</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G60" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H60" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I60" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengchunmei/Desktop/AboutHotel/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2777AA-7F88-DB49-8C0A-1A972173B875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEED3D-6D0C-BB4A-B901-0371E6CBC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63840" yWindow="-4360" windowWidth="43000" windowHeight="26680" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="245">
   <si>
     <t>name</t>
   </si>
@@ -883,12 +893,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>profile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/organization/contract</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.organization.project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/organization/project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>677a2f68-5d75-4bc6-997b-e4b5c3dc1b19</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,7 +1165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1436,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:M60"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -2778,7 +2803,7 @@
         <v>190</v>
       </c>
       <c r="B45" s="8" t="str">
-        <f t="shared" ref="B45:B50" si="11">A$44</f>
+        <f t="shared" ref="B45:B51" si="11">A$44</f>
         <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -2908,7 +2933,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="8" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" si="11"/>
@@ -2924,16 +2949,16 @@
         <v>2</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="18"/>
@@ -2964,10 +2989,10 @@
         <v>238</v>
       </c>
       <c r="H50" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="18"/>
@@ -2975,308 +3000,342 @@
       <c r="M50" s="19"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="24"/>
+      <c r="A51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>ba8fbc04-6f7e-46fb-836c-6c5e64ba7c88</v>
+      </c>
       <c r="C51" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="6">
-        <v>10100</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>213</v>
+        <v>25</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1035</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="24" t="str">
-        <f>A$51</f>
-        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E52" s="9">
-        <v>2</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>211</v>
+      <c r="D52" s="6">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B53" s="24" t="str">
-        <f>A$51</f>
+        <f>A$52</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D53" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B54" s="24" t="str">
-        <f>A$51</f>
+        <f>A$52</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="24" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B55" s="24" t="str">
-        <f>A$51</f>
+        <f>A$52</f>
         <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D55" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="24"/>
+        <v>199</v>
+      </c>
+      <c r="B56" s="24" t="str">
+        <f>A$52</f>
+        <v>d58bf5e0-a67b-4c72-90c4-78c1da16a516</v>
+      </c>
       <c r="C56" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="6">
-        <v>10600</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>216</v>
+      <c r="D56" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="24" t="str">
-        <f>A$56</f>
-        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E57" s="9">
-        <v>2</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>219</v>
+      <c r="D57" s="6">
+        <v>10600</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>221</v>
+        <v>51</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B58" s="24" t="str">
-        <f>A$56</f>
+        <f>A$57</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D58" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B59" s="24" t="str">
-        <f>A$56</f>
+        <f>A$57</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D59" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E59" s="9">
         <v>2</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B60" s="24" t="str">
-        <f>A$56</f>
+        <f>A$57</f>
         <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D60" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E60" s="9">
         <v>2</v>
       </c>
       <c r="F60" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" s="24" t="str">
+        <f>A$57</f>
+        <v>454bdcc7-e439-47ce-ae5a-6fec08cd0afb</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G61" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H61" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I61" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J61" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
